--- a/Datasets/Geographic Data/type_maharashtra.xlsx
+++ b/Datasets/Geographic Data/type_maharashtra.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EV-Market-Segmentation\Datasets\Geographic Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="reportTable" r:id="rId3" sheetId="1"/>
+    <sheet name="reportTable" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="334">
   <si>
     <t>Vehicle Class Wise Fuel Data  of Maharashtra ( Till Today )</t>
   </si>
@@ -1019,24 +1026,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1044,7 +1046,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1059,96 +1061,402 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.65625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.09765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.7109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.80078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.26171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.79296875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="21.84375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="4.859375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="10.12890625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="11.37109375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="16.55859375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="12.125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="12.85546875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="17.53125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.765625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="12.33203125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.11328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="7.19921875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="12.125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X2" t="s" s="5">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1290,7 +1598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1438,7 +1746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1586,7 +1894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1660,7 +1968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1734,7 +2042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1808,7 +2116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1882,7 +2190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1956,7 +2264,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -2030,7 +2338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -2104,7 +2412,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -2178,7 +2486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -2252,7 +2560,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2326,7 +2634,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -2400,7 +2708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2474,7 +2782,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2548,7 +2856,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2622,7 +2930,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -2696,7 +3004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2770,7 +3078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2844,7 +3152,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -2918,7 +3226,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -2992,7 +3300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -3066,7 +3374,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3140,7 +3448,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -3214,7 +3522,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -3288,7 +3596,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3362,7 +3670,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -3436,7 +3744,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -3510,7 +3818,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3584,7 +3892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -3658,7 +3966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -3732,7 +4040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3806,7 +4114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -3880,7 +4188,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -3954,7 +4262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -4028,7 +4336,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -4102,7 +4410,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>210</v>
       </c>
@@ -4176,7 +4484,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>223</v>
       </c>
@@ -4250,7 +4558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -4324,7 +4632,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -4398,7 +4706,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -4472,7 +4780,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -4546,7 +4854,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -4620,7 +4928,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>246</v>
       </c>
@@ -4694,7 +5002,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -4768,7 +5076,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>252</v>
       </c>
@@ -4842,7 +5150,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>257</v>
       </c>
@@ -4916,7 +5224,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -4990,7 +5298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -5064,7 +5372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -5138,7 +5446,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -5212,7 +5520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -5286,7 +5594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -5360,7 +5668,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -5434,7 +5742,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>285</v>
       </c>
@@ -5508,7 +5816,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>292</v>
       </c>
@@ -5582,7 +5890,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -5656,7 +5964,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>298</v>
       </c>
@@ -5730,7 +6038,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -5804,7 +6112,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>304</v>
       </c>
@@ -5878,7 +6186,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>309</v>
       </c>
@@ -5952,7 +6260,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -6026,7 +6334,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>317</v>
       </c>
@@ -6100,7 +6408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -6174,7 +6482,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>322</v>
       </c>
@@ -6248,7 +6556,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>326</v>
       </c>
@@ -6322,7 +6630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -6396,7 +6704,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>332</v>
       </c>
@@ -6470,7 +6778,6 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:X1"/>
@@ -6479,8 +6786,8 @@
     <mergeCell ref="C2:W2"/>
     <mergeCell ref="X2:X3"/>
   </mergeCells>
-  <printOptions gridLines="true"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>